--- a/xls01.xlsx
+++ b/xls01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>vgfd</t>
   </si>
 </sst>
 </file>
@@ -339,17 +342,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C10"/>
+  <dimension ref="C10:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
